--- a/risk_analysis_report_24_09_2025.xlsx
+++ b/risk_analysis_report_24_09_2025.xlsx
@@ -2320,7 +2320,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Amber</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
